--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Argentina_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Argentina_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G398"/>
+  <dimension ref="A1:G401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10136,16 +10136,16 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>7431016000000</v>
+        <v>7431065591000</v>
       </c>
       <c r="D388" t="n">
-        <v>7431016000000</v>
+        <v>7431065591000</v>
       </c>
       <c r="E388" t="n">
-        <v>7431016000000</v>
+        <v>7431065591000</v>
       </c>
       <c r="F388" t="n">
-        <v>7431016000000</v>
+        <v>7431065591000</v>
       </c>
       <c r="G388" t="n">
         <v>0</v>
@@ -10161,16 +10161,16 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>7779471500000</v>
+        <v>7779488501000</v>
       </c>
       <c r="D389" t="n">
-        <v>7779471500000</v>
+        <v>7779488501000</v>
       </c>
       <c r="E389" t="n">
-        <v>7779471500000</v>
+        <v>7779488501000</v>
       </c>
       <c r="F389" t="n">
-        <v>7779471500000</v>
+        <v>7779488501000</v>
       </c>
       <c r="G389" t="n">
         <v>0</v>
@@ -10186,16 +10186,16 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>8162697100000</v>
+        <v>8162661859000</v>
       </c>
       <c r="D390" t="n">
-        <v>8162697100000</v>
+        <v>8162661859000</v>
       </c>
       <c r="E390" t="n">
-        <v>8162697100000</v>
+        <v>8162661859000</v>
       </c>
       <c r="F390" t="n">
-        <v>8162697100000</v>
+        <v>8162661859000</v>
       </c>
       <c r="G390" t="n">
         <v>0</v>
@@ -10398,6 +10398,81 @@
         <v>12770883200000</v>
       </c>
       <c r="G398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>44958.45833333334</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>ECONOMICS:ARM2</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>13551717200000</v>
+      </c>
+      <c r="D399" t="n">
+        <v>13551717200000</v>
+      </c>
+      <c r="E399" t="n">
+        <v>13551717200000</v>
+      </c>
+      <c r="F399" t="n">
+        <v>13551717200000</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>ECONOMICS:ARM2</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>13436944380000</v>
+      </c>
+      <c r="D400" t="n">
+        <v>13436944380000</v>
+      </c>
+      <c r="E400" t="n">
+        <v>13436944380000</v>
+      </c>
+      <c r="F400" t="n">
+        <v>13436944380000</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>ECONOMICS:ARM2</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>14573629300000</v>
+      </c>
+      <c r="D401" t="n">
+        <v>14573629300000</v>
+      </c>
+      <c r="E401" t="n">
+        <v>14573629300000</v>
+      </c>
+      <c r="F401" t="n">
+        <v>14573629300000</v>
+      </c>
+      <c r="G401" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Argentina_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Argentina_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G401"/>
+  <dimension ref="A1:G402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10436,16 +10436,16 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>13436944380000</v>
+        <v>13436944400000</v>
       </c>
       <c r="D400" t="n">
-        <v>13436944380000</v>
+        <v>13436944400000</v>
       </c>
       <c r="E400" t="n">
-        <v>13436944380000</v>
+        <v>13436944400000</v>
       </c>
       <c r="F400" t="n">
-        <v>13436944380000</v>
+        <v>13436944400000</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10473,6 +10473,31 @@
         <v>14573629300000</v>
       </c>
       <c r="G401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>ECONOMICS:ARM2</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>15518845600000</v>
+      </c>
+      <c r="D402" t="n">
+        <v>15518845600000</v>
+      </c>
+      <c r="E402" t="n">
+        <v>15518845600000</v>
+      </c>
+      <c r="F402" t="n">
+        <v>15518845600000</v>
+      </c>
+      <c r="G402" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Argentina_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Argentina_M2.xlsx
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>33329.41666666666</v>
+        <v>33329.45833333334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>33664.41666666666</v>
+        <v>33664.45833333334</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>33695.41666666666</v>
+        <v>33695.45833333334</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>34060.41666666666</v>
+        <v>34060.45833333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -10386,16 +10386,16 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>12770883200000</v>
+        <v>12771022800000</v>
       </c>
       <c r="D398" t="n">
-        <v>12770883200000</v>
+        <v>12771022800000</v>
       </c>
       <c r="E398" t="n">
-        <v>12770883200000</v>
+        <v>12771022800000</v>
       </c>
       <c r="F398" t="n">
-        <v>12770883200000</v>
+        <v>12771022800000</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10411,16 +10411,16 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>13551717200000</v>
+        <v>13550302900000</v>
       </c>
       <c r="D399" t="n">
-        <v>13551717200000</v>
+        <v>13550302900000</v>
       </c>
       <c r="E399" t="n">
-        <v>13551717200000</v>
+        <v>13550302900000</v>
       </c>
       <c r="F399" t="n">
-        <v>13551717200000</v>
+        <v>13550302900000</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10436,16 +10436,16 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>13436944400000</v>
+        <v>13436661400000</v>
       </c>
       <c r="D400" t="n">
-        <v>13436944400000</v>
+        <v>13436661400000</v>
       </c>
       <c r="E400" t="n">
-        <v>13436944400000</v>
+        <v>13436661400000</v>
       </c>
       <c r="F400" t="n">
-        <v>13436944400000</v>
+        <v>13436661400000</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Argentina_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Argentina_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G402"/>
+  <dimension ref="A1:G403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>33329.45833333334</v>
+        <v>33329.41666666666</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>33664.45833333334</v>
+        <v>33664.41666666666</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>33695.45833333334</v>
+        <v>33695.41666666666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -10498,6 +10498,31 @@
         <v>15518845600000</v>
       </c>
       <c r="G402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>ECONOMICS:ARM2</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>17075266700000</v>
+      </c>
+      <c r="D403" t="n">
+        <v>17075266700000</v>
+      </c>
+      <c r="E403" t="n">
+        <v>17075266700000</v>
+      </c>
+      <c r="F403" t="n">
+        <v>17075266700000</v>
+      </c>
+      <c r="G403" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Argentina_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Argentina_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G403"/>
+  <dimension ref="A1:G405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10526,6 +10526,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>ECONOMICS:ARM2</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>18158986600000</v>
+      </c>
+      <c r="D404" t="n">
+        <v>18158986600000</v>
+      </c>
+      <c r="E404" t="n">
+        <v>18158986600000</v>
+      </c>
+      <c r="F404" t="n">
+        <v>18158986600000</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>ECONOMICS:ARM2</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>19801973500000</v>
+      </c>
+      <c r="D405" t="n">
+        <v>19801973500000</v>
+      </c>
+      <c r="E405" t="n">
+        <v>19801973500000</v>
+      </c>
+      <c r="F405" t="n">
+        <v>19801973500000</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Argentina_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Argentina_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G405"/>
+  <dimension ref="A1:G406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10576,6 +10576,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>ECONOMICS:ARM2</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>21875680500000</v>
+      </c>
+      <c r="D406" t="n">
+        <v>21875680500000</v>
+      </c>
+      <c r="E406" t="n">
+        <v>21875680500000</v>
+      </c>
+      <c r="F406" t="n">
+        <v>21875680500000</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
